--- a/Dres/result.xlsx
+++ b/Dres/result.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruochen\Desktop\FALL 2021\CS534_ML\project\ML_Project\Dres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8806795-6D08-4C89-940A-ABDA19A81E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C6CF5-646A-4F32-B48C-67B41634797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Dog_1</t>
   </si>
@@ -66,9 +75,6 @@
     <t>parameter r</t>
   </si>
   <si>
-    <t>% of inctal</t>
-  </si>
-  <si>
     <t>Patient_3</t>
   </si>
   <si>
@@ -85,6 +91,39 @@
   </si>
   <si>
     <t>Patient_8</t>
+  </si>
+  <si>
+    <t>AUC_SVM</t>
+  </si>
+  <si>
+    <t>*_CS</t>
+  </si>
+  <si>
+    <t>Actual +1</t>
+  </si>
+  <si>
+    <t>Actual -1</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Predicted -1</t>
+  </si>
+  <si>
+    <t>Predicted +1</t>
+  </si>
+  <si>
+    <t>% of ictal</t>
+  </si>
+  <si>
+    <t>% of preictal</t>
   </si>
 </sst>
 </file>
@@ -94,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +157,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -499,11 +545,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -529,15 +586,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,12 +601,42 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,719 +922,1026 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="C1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J27"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="115.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+    <row r="1" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="19"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="19"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="J4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="K4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="6" t="s">
+      <c r="L4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19"/>
+      <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.90080000000000005</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="E5" s="7">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="25">
-        <v>0.72689999999999999</v>
-      </c>
-      <c r="G5" s="8">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0.1231</v>
-      </c>
-      <c r="I5" s="33">
+      <c r="H5" s="22">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="K5" s="38">
         <v>0.06</v>
       </c>
-      <c r="J5" s="34">
+      <c r="L5" s="30">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="6" t="s">
+      <c r="N5" s="1">
+        <f>AVERAGE(E5:E9)</f>
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="O5" s="1">
+        <f>AVERAGE(F5:F11)</f>
+        <v>4.4971428571428572E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f>AVERAGE(G5:G11)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5" si="0">AVERAGE(H5:H9)</f>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="R5" s="1">
+        <f>AVERAGE(I5:I11)</f>
+        <v>0.77571428571428591</v>
+      </c>
+      <c r="S5" s="1">
+        <f>AVERAGE(J5:J11)</f>
+        <v>0.38935714285714285</v>
+      </c>
+      <c r="T5" s="1">
+        <f>AVERAGE(V5:V11)</f>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="U5" s="1">
+        <f>AVERAGE(W5:W11)</f>
+        <v>0.78714285714285714</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="19"/>
+      <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
-        <v>0.8327</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="E6" s="10">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="26">
-        <v>0.58120000000000005</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.15440000000000001</v>
-      </c>
-      <c r="H6" s="28">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="I6" s="35">
+      <c r="H6" s="23">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="K6" s="39">
         <v>0.1</v>
       </c>
-      <c r="J6" s="36">
+      <c r="L6" s="31">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="6" t="s">
+      <c r="N6" s="1">
+        <f>AVERAGE(E10:E11)</f>
+        <v>0.58695000000000008</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <f t="shared" ref="Q6" si="1">AVERAGE(H10:H11)</f>
+        <v>0.65995000000000004</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6">
+        <v>0.5</v>
+      </c>
+      <c r="W6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="19"/>
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="E7" s="10">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="G7" s="12">
         <v>0</v>
       </c>
-      <c r="F7" s="26">
-        <v>0.9032</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H7" s="28">
-        <v>0.4123</v>
-      </c>
-      <c r="I7" s="35">
+      <c r="H7" s="23">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.4163</v>
+      </c>
+      <c r="K7" s="39">
         <v>0.06</v>
       </c>
-      <c r="J7" s="36">
+      <c r="L7" s="31">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="6" t="s">
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="19"/>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
-        <v>0.80130000000000001</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="E8" s="10">
+        <v>0.7984</v>
+      </c>
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="G8" s="12">
         <v>0</v>
       </c>
-      <c r="F8" s="26">
-        <v>0.67069999999999996</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.2366</v>
-      </c>
-      <c r="H8" s="28">
-        <v>0.37680000000000002</v>
-      </c>
-      <c r="I8" s="35">
+      <c r="H8" s="23">
+        <v>0.6744</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.3785</v>
+      </c>
+      <c r="K8" s="39">
         <v>0.1</v>
       </c>
-      <c r="J8" s="36">
+      <c r="L8" s="31">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
+      <c r="N8" s="1">
+        <f>AVERAGE(E5:E11)</f>
+        <v>0.78827142857142873</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
+        <f t="shared" ref="Q8" si="2">AVERAGE(H5:H11)</f>
+        <v>0.7214857142857144</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="19"/>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10">
-        <v>0.88260000000000005</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="E9" s="10">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="G9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="26">
-        <v>0.8931</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.34470000000000001</v>
-      </c>
-      <c r="H9" s="28">
-        <v>0.47970000000000002</v>
-      </c>
-      <c r="I9" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="36">
+      <c r="H9" s="23">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="K9" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="L9" s="31">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="6" t="s">
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="19"/>
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10">
-        <v>0.68140000000000001</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.37780000000000002</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.34339999999999998</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0.75980000000000003</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="H10" s="28">
-        <v>0.52429999999999999</v>
-      </c>
-      <c r="I10" s="35">
+      <c r="E10" s="10">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="39">
         <v>0.4</v>
       </c>
-      <c r="J10" s="36">
+      <c r="L10" s="31">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="6" t="s">
+      <c r="V10">
+        <v>0.65</v>
+      </c>
+      <c r="W10">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="19"/>
+      <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13">
-        <v>0.5111</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="E11" s="13">
+        <v>0.4778</v>
+      </c>
+      <c r="F11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="F11" s="27">
-        <v>0.56110000000000004</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.3967</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0.54859999999999998</v>
-      </c>
-      <c r="I11" s="37">
+      <c r="H11" s="24">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="K11" s="40">
         <v>0.3</v>
       </c>
-      <c r="J11" s="38">
+      <c r="L11" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="V11">
+        <v>0.49</v>
+      </c>
+      <c r="W11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="22" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="19"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="31" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="F15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="G15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="H15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="I15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="J15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="K15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="L15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.755</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.9899</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="1">
+        <f>AVERAGE(E16:E19)</f>
+        <v>0.86114999999999997</v>
+      </c>
+      <c r="O16" s="1">
+        <f>AVERAGE(F16:F27)</f>
+        <v>0.7542416666666667</v>
+      </c>
+      <c r="P16" s="1">
+        <f>AVERAGE(G16:G27)</f>
+        <v>0.55072500000000002</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" ref="Q16" si="3">AVERAGE(H16:H19)</f>
+        <v>0.994475</v>
+      </c>
+      <c r="R16" s="1">
+        <f>AVERAGE(I16:I27)</f>
+        <v>0.9022916666666666</v>
+      </c>
+      <c r="S16" s="1">
+        <f>AVERAGE(J16:J27)</f>
+        <v>0.88895833333333341</v>
+      </c>
+      <c r="T16" s="1">
+        <f>AVERAGE(V16:V27)</f>
+        <v>0.87583333333333335</v>
+      </c>
+      <c r="U16" s="1">
+        <f>AVERAGE(W16:W27)</f>
+        <v>0.97583333333333344</v>
+      </c>
+      <c r="V16">
+        <v>0.99</v>
+      </c>
+      <c r="W16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.6452</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="K17" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="31">
+        <v>0.13</v>
+      </c>
+      <c r="N17" s="1">
+        <f>AVERAGE(E20:E27)</f>
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
+        <f t="shared" ref="Q17" si="4">AVERAGE(H20:H27)</f>
+        <v>0.93178749999999999</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17">
+        <v>0.96</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="K18" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="31">
+        <v>0.09</v>
+      </c>
+      <c r="V18">
+        <v>0.96</v>
+      </c>
+      <c r="W18">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.997</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="K19" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19" si="5">AVERAGE(E16:E27)</f>
+        <v>0.85944999999999994</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
+        <f>AVERAGE(H16:H27)</f>
+        <v>0.95268333333333333</v>
+      </c>
+      <c r="V19">
+        <v>0.97</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="V20">
+        <v>0.93</v>
+      </c>
+      <c r="W20">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="K21" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="V21">
+        <v>0.95</v>
+      </c>
+      <c r="W21">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="6" t="s">
+      <c r="E22" s="10">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.9113</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="V22">
+        <v>0.89</v>
+      </c>
+      <c r="W22">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.7752</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.57330000000000003</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.71970000000000001</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.98850000000000005</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="I16" s="33">
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.1346</v>
+      </c>
+      <c r="K23" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="V23">
         <v>0.5</v>
       </c>
-      <c r="J16" s="34">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.89019999999999999</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.54579999999999995</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.6895</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="I17" s="35">
+      <c r="W23">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.59740000000000004</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="K24" s="39">
         <v>0.1</v>
       </c>
-      <c r="J17" s="36">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.9113</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.50860000000000005</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.6573</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0.97189999999999999</v>
-      </c>
-      <c r="I18" s="35">
+      <c r="L24" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="V24">
+        <v>0.92</v>
+      </c>
+      <c r="W24">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="25" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.9819</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="V25">
+        <v>0.97</v>
+      </c>
+      <c r="W25">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="26" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.9768</v>
+      </c>
+      <c r="K26" s="39">
         <v>0.1</v>
       </c>
-      <c r="J18" s="36">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.91859999999999997</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.98460000000000003</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="I19" s="35">
+      <c r="L26" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="V26">
+        <v>0.94</v>
+      </c>
+      <c r="W26">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="27" spans="4:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="F27" s="14">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="G27" s="15">
+        <v>5.62E-2</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.82779999999999998</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="K27" s="40">
         <v>0.1</v>
       </c>
-      <c r="J19" s="36">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.64939999999999998</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.53979999999999995</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.79310000000000003</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.879</v>
-      </c>
-      <c r="I20" s="35">
+      <c r="L27" s="32">
         <v>0.1</v>
       </c>
-      <c r="J20" s="36">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.9486</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.61780000000000002</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.93420000000000003</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0.93730000000000002</v>
-      </c>
-      <c r="I21" s="35">
-        <v>0.3</v>
-      </c>
-      <c r="J21" s="36">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.74350000000000005</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0.6633</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.93659999999999999</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0.90090000000000003</v>
-      </c>
-      <c r="I22" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="J22" s="36">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.1023</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="I23" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="36">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.94059999999999999</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.44569999999999999</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.96579999999999999</v>
-      </c>
-      <c r="I24" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="J24" s="36">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.92130000000000001</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0.48730000000000001</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0.99539999999999995</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="J25" s="36">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.46889999999999998</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.97860000000000003</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0.97689999999999999</v>
-      </c>
-      <c r="I26" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="36">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.82650000000000001</v>
-      </c>
-      <c r="D27" s="14">
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="E27" s="15">
-        <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0.96350000000000002</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="I27" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="38">
-        <v>0.1</v>
+      <c r="V27">
+        <v>0.53</v>
+      </c>
+      <c r="W27">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="6:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="34"/>
+      <c r="G58" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
